--- a/simulation results/RMSE results (gamma=structured and observed).xlsx
+++ b/simulation results/RMSE results (gamma=structured and observed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FDDBF-483E-9F47-8B91-80C03FF66ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718FFFD3-EDC8-D842-9036-B6290498E00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="980" windowWidth="24400" windowHeight="21580" xr2:uid="{03252FE9-70DE-CC42-9FB7-50C8ABDE8946}"/>
+    <workbookView xWindow="10160" yWindow="760" windowWidth="24400" windowHeight="21580" xr2:uid="{03252FE9-70DE-CC42-9FB7-50C8ABDE8946}"/>
   </bookViews>
   <sheets>
     <sheet name="original model" sheetId="1" r:id="rId1"/>
@@ -171,24 +171,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,13 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54CFEE0-858A-7047-9E5B-677F3681B0B3}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,19 +1456,19 @@
       <c r="B43" s="4">
         <v>3.9383379000000003E-2</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>2.893428E-2</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>2.158759E-2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>2.3463979999999999E-2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>2.2578279999999999E-2</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>2.4040789999999999E-2</v>
       </c>
     </row>
@@ -1492,19 +1479,19 @@
       <c r="B44" s="4">
         <v>3.4092575999999999E-2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>2.4602200000000001E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>1.88042E-2</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>2.056287E-2</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="4">
         <v>1.9846720000000002E-2</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>2.1212459999999999E-2</v>
       </c>
     </row>
@@ -1515,19 +1502,19 @@
       <c r="B45" s="4">
         <v>3.5530767999999997E-2</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>2.6341639999999999E-2</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>2.0038609999999998E-2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>2.2105219999999998E-2</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="4">
         <v>2.1342819999999998E-2</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>2.279863E-2</v>
       </c>
     </row>
@@ -1538,19 +1525,19 @@
       <c r="B46" s="4">
         <v>1.0658479E-2</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>2.308195E-2</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>2.9682469999999999E-2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>3.814741E-2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>3.9458769999999997E-2</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>4.2716700000000003E-2</v>
       </c>
     </row>
@@ -1561,19 +1548,19 @@
       <c r="B47" s="4">
         <v>2.0485198E-2</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>2.366563E-2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>2.31349E-2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>2.6780749999999999E-2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>2.58455E-2</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>2.6537069999999999E-2</v>
       </c>
     </row>
@@ -1584,19 +1571,19 @@
       <c r="B48" s="4">
         <v>8.1050440000000005E-3</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>2.2988749999999999E-2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>3.2500809999999998E-2</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>4.0142570000000002E-2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>4.3089240000000001E-2</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>4.809596E-2</v>
       </c>
     </row>
@@ -1607,19 +1594,19 @@
       <c r="B49" s="4">
         <v>7.4714309999999997E-3</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>2.3151069999999999E-2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>3.3032770000000003E-2</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>4.2611019999999999E-2</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>4.5605310000000003E-2</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>5.048631E-2</v>
       </c>
     </row>
@@ -1630,19 +1617,19 @@
       <c r="B50" s="4">
         <v>1.8421930999999999E-2</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>2.349768E-2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>2.4268979999999999E-2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>2.8235699999999999E-2</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>2.7380600000000001E-2</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>2.8031779999999999E-2</v>
       </c>
     </row>
@@ -1653,19 +1640,19 @@
       <c r="B51" s="4">
         <v>5.114337E-3</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>2.31728E-2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>3.6483500000000002E-2</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>4.4661020000000003E-2</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>4.9091219999999998E-2</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>5.6129560000000002E-2</v>
       </c>
     </row>
@@ -2025,10 +2012,10 @@
       <c r="E68" s="2">
         <v>4.8948810000000002E-2</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>5.7074840000000002E-2</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="4">
         <v>6.5438629999999998E-2</v>
       </c>
     </row>
@@ -2048,10 +2035,10 @@
       <c r="E69" s="2">
         <v>1.8144759999999999E-2</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="4">
         <v>1.7417229999999999E-2</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>1.8728290000000002E-2</v>
       </c>
     </row>
@@ -2071,10 +2058,10 @@
       <c r="E70" s="2">
         <v>1.6537199999999998E-2</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="4">
         <v>1.591915E-2</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>1.7204750000000001E-2</v>
       </c>
     </row>
@@ -2094,10 +2081,10 @@
       <c r="E71" s="2">
         <v>1.735743E-2</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="4">
         <v>1.670777E-2</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>1.803803E-2</v>
       </c>
     </row>
@@ -2117,10 +2104,10 @@
       <c r="E72" s="2">
         <v>2.674849E-2</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="4">
         <v>2.5572950000000001E-2</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>2.731101E-2</v>
       </c>
     </row>
@@ -2140,10 +2127,10 @@
       <c r="E73" s="2">
         <v>2.054419E-2</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="4">
         <v>1.8920650000000001E-2</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>1.9794409999999998E-2</v>
       </c>
     </row>
@@ -2163,10 +2150,10 @@
       <c r="E74" s="2">
         <v>2.772399E-2</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="4">
         <v>2.7132710000000001E-2</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="4">
         <v>2.9497010000000001E-2</v>
       </c>
     </row>
@@ -2186,10 +2173,10 @@
       <c r="E75" s="2">
         <v>2.9644799999999999E-2</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="4">
         <v>2.912292E-2</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>3.1186519999999999E-2</v>
       </c>
     </row>
@@ -2209,10 +2196,10 @@
       <c r="E76" s="2">
         <v>2.1200070000000001E-2</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="4">
         <v>1.950228E-2</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <v>2.0303129999999999E-2</v>
       </c>
     </row>
@@ -2232,10 +2219,10 @@
       <c r="E77" s="2">
         <v>3.102713E-2</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="4">
         <v>3.1490110000000002E-2</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>3.4589559999999998E-2</v>
       </c>
     </row>
